--- a/vignettes/stability.xlsx
+++ b/vignettes/stability.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>function</t>
   </si>
@@ -30,10 +30,6 @@
   </si>
   <si>
     <t>xxxx</t>
-  </si>
-  <si>
-    <t>Sums of the
-absolute value of the IPC scores ($SIPC$)</t>
   </si>
   <si>
     <t>[@sneller_repeatability_1997]</t>
@@ -43,12 +39,6 @@
 Where, $Y_{ij}$ is the yield of $i$^th^ genotype in $j$^th^ environment, $\mu$ is the grand mean, $\alpha_{i}$ is the genotype deviation from the grand mean, $\beta_{j}$ is the environment deviation, $N$ is the number of significant IPCAs (number of IPC that were retained in the AMMI model via F tests), $\lambda_{n}$ is the is the singular value for interaction principal component (IPC) $n$ and correspondingly $\lambda_{n}^{2}$  is its eigen value, $\gamma_{in}$ is the eigenvector value for $i$^th^ genotype, $\delta_{jn}$  is the eigenvector value for $j$^th^ environment and $\rho_{ij}$ is the residual.</t>
   </si>
   <si>
-    <t>$$EV = \sum_{n=1}^{N}\frac{\gamma_{in}^2}{N}$$</t>
-  </si>
-  <si>
-    <t>$EV$ stability parameter</t>
-  </si>
-  <si>
     <t>AMMI equation</t>
   </si>
   <si>
@@ -61,9 +51,6 @@
     <t>[@zobel_stress_1994]</t>
   </si>
   <si>
-    <t>$AMGE$ stability parameter</t>
-  </si>
-  <si>
     <t>AMGE.AMMI</t>
   </si>
   <si>
@@ -73,22 +60,162 @@
     <t>Sneller</t>
   </si>
   <si>
-    <t>$$SIPC = \sum_{n=1}^{N} \left | \lambda_{n}^{0.5}\gamma_{in} \right |$$
-$$SIPC = \sum_{n=1}^{N}\left | IPCA_{n}} \right |$$</t>
-  </si>
-  <si>
-    <t>$$AMGE = \sum_{n=1}^{N}\sum_{i=1}^{G}\lambda_{n}\gamma_{in}\delta_{jn}$$
-Where, {M} is the number of environments</t>
-  </si>
-  <si>
-    <t>AWAI ??</t>
+    <t>AMMI stability value (ASV)</t>
+  </si>
+  <si>
+    <t>Modified AMMI stability value (ASV)</t>
+  </si>
+  <si>
+    <t>[@zali_evaluation_2012]</t>
+  </si>
+  <si>
+    <t>[@annicchiarico_joint_1997]</t>
+  </si>
+  <si>
+    <t>[@zhang_analysis_1998]</t>
+  </si>
+  <si>
+    <t>agricolae::index.AMMI</t>
+  </si>
+  <si>
+    <t>MASV.AMMI</t>
+  </si>
+  <si>
+    <t>$$MASV = \sqrt{\sum_{n=1}^{N'-1}\left (\frac{SSIPC_{n}}{SSIPC_{n+1}} \times PC_{n}  \right )^2   + \left (PC_{N'}  \right )^2} $$</t>
+  </si>
+  <si>
+    <t>$$Za = \sum_{i=1}^{N'}\left | \theta_{n}\gamma_{in} \right |$$</t>
+  </si>
+  <si>
+    <t>The unsquared Euclidean distance from the origin of significant IPC axes (D) in the AMMI model.
+$$D_{a} = \sqrt{\sum_{n=1}^{N'}(\lambda_{n}\gamma_{in})^2}$$</t>
+  </si>
+  <si>
+    <t>Distance from the coordinate point to the origin in a two dimensional scattergram generated by plotting of IPC1 score against IPC2 score.
+$$ASV = \sqrt{\left (\frac{SSIPC_{1}}{SSIPC_{2}}\times PC_{1}  \right )^2   + \left (PC_{2}  \right )^2} $$</t>
+  </si>
+  <si>
+    <t>Stability measure based on fitted AMMI model $FA$</t>
+  </si>
+  <si>
+    <t>$$FA = \sum_{n=1}^{N'}\lambda_{n}^{2}\gamma_{in}^{2}$$</t>
+  </si>
+  <si>
+    <t>$FP$</t>
+  </si>
+  <si>
+    <t>[@raju_study_2002; @zali_evaluation_2012]</t>
+  </si>
+  <si>
+    <t>[@wricke_method_1962; @raju_study_2002; @zali_evaluation_2012]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$D_{a}$ </t>
+  </si>
+  <si>
+    <t>$B$</t>
+  </si>
+  <si>
+    <t>Equivalent to $FA$, when the first two IPC axes are considered for computation.
+$$B = \sum_{n=1}^{2}\lambda_{n}^{2}\gamma_{in}^{2}$$
+Stability comparisons based on this measure will be equivalent to the comparisons based on biplot with first two IPC axes.</t>
+  </si>
+  <si>
+    <t>Equivalent to $FA$, when all the IPC axes in the AMMI model are considered for computation.
+$$W_{AMMI} = \sum_{n=1}^{N}\lambda_{n}^{2}\gamma_{in}^{2}$$
+Equivalent to Wricke's ecovalence.</t>
+  </si>
+  <si>
+    <t>$$AMGE = \sum_{j=1}^{E} \sum_{n=1}^{N'} \lambda_{n} \gamma_{in} \delta_{jn}$$</t>
+  </si>
+  <si>
+    <t>$$AV_{AMGE} = \sum_{j=1}^{E} \sum_{n=1}^{N'} \left |\lambda_{n} \gamma_{in} \delta_{jn}  \right |$$</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Equivalent to $FA$, when only the first IPC axis is considered for computation. 
+$$FP = \lambda_{1}^{2}\gamma_{i1}^{2}$$
+As  $\lambda_{1}^{2}$ will be same for all the genotypes, the absolute value of $gamma_{i1}$ alone is sufficient for comparison. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> So this is also equivalent to the comparison based on biplot with first IPC axis.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sums of the absolute value of the IPC scores ($SIPC$)</t>
+  </si>
+  <si>
+    <t>$$SIPC = \sum_{n=1}^{N'} \left | \lambda_{n}^{0.5}\gamma_{in} \right |$$
+$$SIPC = \sum_{n=1}^{N'}\left | IPC_{n} \right |$$</t>
+  </si>
+  <si>
+    <t>The distance of IPC  point  with  origin  in space. (AMMI stability index)
+$$D_{z} = \sqrt{\sum_{n=1}^{N'}\gamma_{in}^{2}}$$</t>
+  </si>
+  <si>
+    <t>[@purchase_parametric_1997; @purchase_use_1999; @purchase_genotype_2000]</t>
+  </si>
+  <si>
+    <t>AMMI Stability Index ($ASI$)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AMMI statistic coefficient or AMMI distance or AMMI stability index </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">$D_{z}$ </t>
+    </r>
+  </si>
+  <si>
+    <t>$$ASI = \sqrt{\left [ PC_{1}^{2} \times \theta_{1}^{2} \right ]+\left [ PC_{2}^{2} \times \theta_{2}^{2} \right ]}$$</t>
+  </si>
+  <si>
+    <t>[@jambhulkar_ammi_2014; @jambhulkar_genotype_2015; @jambhulkar_stability_2017]</t>
+  </si>
+  <si>
+    <t>Absolute value of the relative contribution IPCs to the interaction  $Za$</t>
+  </si>
+  <si>
+    <t>$$EV = \sum_{n=1}^{N'}\frac{\gamma_{in}^2}{N'}$$</t>
+  </si>
+  <si>
+    <t>Averages of the squared eigenvector values $EV$</t>
+  </si>
+  <si>
+    <t>Sum across environments of GEI modelled by AMMI $AMGE$</t>
+  </si>
+  <si>
+    <t>$AV_{(AMGE)}$</t>
+  </si>
+  <si>
+    <t>$W_{(AMMI)}$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +236,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -160,7 +306,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -171,13 +317,26 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,61 +672,190 @@
     </row>
     <row r="2" spans="1:4" ht="150">
       <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="45">
       <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="45">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60">
+      <c r="A5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60">
+      <c r="A8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="75">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60">
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="105">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="90">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -581,19 +869,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
-        <v>16</v>
+      <c r="A2" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/stability.xlsx
+++ b/vignettes/stability.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -150,10 +150,6 @@
   </si>
   <si>
     <t>Sums of the absolute value of the IPC scores ($SIPC$)</t>
-  </si>
-  <si>
-    <t>$$SIPC = \sum_{n=1}^{N'} \left | \lambda_{n}^{0.5}\gamma_{in} \right |$$
-$$SIPC = \sum_{n=1}^{N'}\left | IPC_{n} \right |$$</t>
   </si>
   <si>
     <t>The distance of IPC  point  with  origin  in space. (AMMI stability index)
@@ -202,20 +198,24 @@
     <t>Averages of the squared eigenvector values $EV$</t>
   </si>
   <si>
-    <t>Sum across environments of GEI modelled by AMMI $AMGE$</t>
-  </si>
-  <si>
     <t>$AV_{(AMGE)}$</t>
   </si>
   <si>
     <t>$W_{(AMMI)}$</t>
+  </si>
+  <si>
+    <t>$$SIPC = \sum_{n=1}^{N'} \left | \lambda_{n}^{0.5}\gamma_{in} \right |$$
+$$SIPC = \sum_{n=1}^{N'}\left | PC_{n} \right |$$</t>
+  </si>
+  <si>
+    <t>Sum across environments of GEI modelled by AMMI ($AMGE$)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,9 +432,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,6 +467,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -641,14 +643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -656,7 +658,7 @@
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -670,7 +672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150">
+    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -682,7 +684,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="45">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -690,29 +692,29 @@
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
@@ -724,9 +726,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>35</v>
@@ -735,7 +737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -747,19 +749,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60">
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -770,10 +772,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -787,9 +789,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="10" t="s">
@@ -799,7 +801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -811,7 +813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="105">
+    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -823,7 +825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="90">
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -835,9 +837,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="90">
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="10" t="s">
@@ -847,15 +849,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -865,21 +867,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>

--- a/vignettes/stability.xlsx
+++ b/vignettes/stability.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>function</t>
   </si>
@@ -87,10 +87,6 @@
     <t>$$Za = \sum_{i=1}^{N'}\left | \theta_{n}\gamma_{in} \right |$$</t>
   </si>
   <si>
-    <t>The unsquared Euclidean distance from the origin of significant IPC axes (D) in the AMMI model.
-$$D_{a} = \sqrt{\sum_{n=1}^{N'}(\lambda_{n}\gamma_{in})^2}$$</t>
-  </si>
-  <si>
     <t>Distance from the coordinate point to the origin in a two dimensional scattergram generated by plotting of IPC1 score against IPC2 score.
 $$ASV = \sqrt{\left (\frac{SSIPC_{1}}{SSIPC_{2}}\times PC_{1}  \right )^2   + \left (PC_{2}  \right )^2} $$</t>
   </si>
@@ -108,9 +104,6 @@
   </si>
   <si>
     <t>[@wricke_method_1962; @raju_study_2002; @zali_evaluation_2012]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$D_{a}$ </t>
   </si>
   <si>
     <t>$B$</t>
@@ -121,15 +114,7 @@
 Stability comparisons based on this measure will be equivalent to the comparisons based on biplot with first two IPC axes.</t>
   </si>
   <si>
-    <t>Equivalent to $FA$, when all the IPC axes in the AMMI model are considered for computation.
-$$W_{AMMI} = \sum_{n=1}^{N}\lambda_{n}^{2}\gamma_{in}^{2}$$
-Equivalent to Wricke's ecovalence.</t>
-  </si>
-  <si>
     <t>$$AMGE = \sum_{j=1}^{E} \sum_{n=1}^{N'} \lambda_{n} \gamma_{in} \delta_{jn}$$</t>
-  </si>
-  <si>
-    <t>$$AV_{AMGE} = \sum_{j=1}^{E} \sum_{n=1}^{N'} \left |\lambda_{n} \gamma_{in} \delta_{jn}  \right |$$</t>
   </si>
   <si>
     <r>
@@ -152,14 +137,54 @@
     <t>Sums of the absolute value of the IPC scores ($SIPC$)</t>
   </si>
   <si>
-    <t>The distance of IPC  point  with  origin  in space. (AMMI stability index)
+    <t>[@purchase_parametric_1997; @purchase_use_1999; @purchase_genotype_2000]</t>
+  </si>
+  <si>
+    <t>AMMI Stability Index ($ASI$)</t>
+  </si>
+  <si>
+    <t>$$ASI = \sqrt{\left [ PC_{1}^{2} \times \theta_{1}^{2} \right ]+\left [ PC_{2}^{2} \times \theta_{2}^{2} \right ]}$$</t>
+  </si>
+  <si>
+    <t>[@jambhulkar_ammi_2014; @jambhulkar_genotype_2015; @jambhulkar_stability_2017]</t>
+  </si>
+  <si>
+    <t>$$EV = \sum_{n=1}^{N'}\frac{\gamma_{in}^2}{N'}$$</t>
+  </si>
+  <si>
+    <t>Averages of the squared eigenvector values $EV$</t>
+  </si>
+  <si>
+    <t>$AV_{(AMGE)}$</t>
+  </si>
+  <si>
+    <t>$W_{(AMMI)}$</t>
+  </si>
+  <si>
+    <t>$$SIPC = \sum_{n=1}^{N'} \left | \lambda_{n}^{0.5}\gamma_{in} \right |$$
+$$SIPC = \sum_{n=1}^{N'}\left | PC_{n} \right |$$</t>
+  </si>
+  <si>
+    <t>Sum across environments of GEI modelled by AMMI ($AMGE$)</t>
+  </si>
+  <si>
+    <t>$$AV_{(AMGE)} = \sum_{j=1}^{E} \sum_{n=1}^{N'} \left |\lambda_{n} \gamma_{in} \delta_{jn}  \right |$$</t>
+  </si>
+  <si>
+    <t>Equivalent to $FA$, when all the IPC axes in the AMMI model are considered for computation.
+$$W_{(AMMI)} = \sum_{n=1}^{N}\lambda_{n}^{2}\gamma_{in}^{2}$$
+Equivalent to Wricke's ecovalence.</t>
+  </si>
+  <si>
+    <t>The unsquared Euclidean distance from the origin of significant IPC axes in the AMMI model.
+$$D_{a} = \sqrt{\sum_{n=1}^{N'}(\lambda_{n}\gamma_{in})^2}$$</t>
+  </si>
+  <si>
+    <t>The distance of IPC  point  from  origin  in space.
 $$D_{z} = \sqrt{\sum_{n=1}^{N'}\gamma_{in}^{2}}$$</t>
   </si>
   <si>
-    <t>[@purchase_parametric_1997; @purchase_use_1999; @purchase_genotype_2000]</t>
-  </si>
-  <si>
-    <t>AMMI Stability Index ($ASI$)</t>
+    <t xml:space="preserve">Annicchiarico's D parameter ($D_{a}$) </t>
   </si>
   <si>
     <r>
@@ -170,7 +195,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">AMMI statistic coefficient or AMMI distance or AMMI stability index </t>
+      <t>Zhang's D parameter or AMMI statistic coefficient or AMMI distance or AMMI stability index (</t>
     </r>
     <r>
       <rPr>
@@ -179,43 +204,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">$D_{z}$ </t>
+      <t xml:space="preserve">$D_{z}$) </t>
     </r>
   </si>
   <si>
-    <t>$$ASI = \sqrt{\left [ PC_{1}^{2} \times \theta_{1}^{2} \right ]+\left [ PC_{2}^{2} \times \theta_{2}^{2} \right ]}$$</t>
-  </si>
-  <si>
-    <t>[@jambhulkar_ammi_2014; @jambhulkar_genotype_2015; @jambhulkar_stability_2017]</t>
-  </si>
-  <si>
-    <t>Absolute value of the relative contribution IPCs to the interaction  $Za$</t>
-  </si>
-  <si>
-    <t>$$EV = \sum_{n=1}^{N'}\frac{\gamma_{in}^2}{N'}$$</t>
-  </si>
-  <si>
-    <t>Averages of the squared eigenvector values $EV$</t>
-  </si>
-  <si>
-    <t>$AV_{(AMGE)}$</t>
-  </si>
-  <si>
-    <t>$W_{(AMMI)}$</t>
-  </si>
-  <si>
-    <t>$$SIPC = \sum_{n=1}^{N'} \left | \lambda_{n}^{0.5}\gamma_{in} \right |$$
-$$SIPC = \sum_{n=1}^{N'}\left | PC_{n} \right |$$</t>
-  </si>
-  <si>
-    <t>Sum across environments of GEI modelled by AMMI ($AMGE$)</t>
+    <t>AVAMGE.AMMI</t>
+  </si>
+  <si>
+    <t>ASI.AMMI</t>
+  </si>
+  <si>
+    <t>ZA.AMMI</t>
+  </si>
+  <si>
+    <t>DZ.AMMI</t>
+  </si>
+  <si>
+    <t>DA.AMMI</t>
+  </si>
+  <si>
+    <t>FA.AMMI</t>
+  </si>
+  <si>
+    <t>Absolute value of the relative contribution of IPCs to the interaction  $Za$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,10 +450,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,7 +484,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,14 +659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -658,7 +674,7 @@
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -672,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="150">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -684,84 +700,91 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="60">
       <c r="A5" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60">
       <c r="A7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="75">
       <c r="A8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C8" s="10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="75">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -769,13 +792,13 @@
         <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -789,11 +812,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="60">
       <c r="A11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
@@ -801,63 +826,68 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="105">
+      <c r="A13" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="90">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="10" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -867,21 +897,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>

--- a/vignettes/stability.xlsx
+++ b/vignettes/stability.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,11 +11,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>function</t>
   </si>
@@ -33,10 +34,6 @@
   </si>
   <si>
     <t>[@sneller_repeatability_1997]</t>
-  </si>
-  <si>
-    <t>$$Y_{ij} = \mu + \alpha_{i} + \beta_{j} + \sum_{n=1}^{N}\lambda_{n}\gamma_{in}\delta_{jn} + \rho_{ij}$$
-Where, $Y_{ij}$ is the yield of $i$^th^ genotype in $j$^th^ environment, $\mu$ is the grand mean, $\alpha_{i}$ is the genotype deviation from the grand mean, $\beta_{j}$ is the environment deviation, $N$ is the number of significant IPCAs (number of IPC that were retained in the AMMI model via F tests), $\lambda_{n}$ is the is the singular value for interaction principal component (IPC) $n$ and correspondingly $\lambda_{n}^{2}$  is its eigen value, $\gamma_{in}$ is the eigenvector value for $i$^th^ genotype, $\delta_{jn}$  is the eigenvector value for $j$^th^ environment and $\rho_{ij}$ is the residual.</t>
   </si>
   <si>
     <t>AMMI equation</t>
@@ -115,23 +112,6 @@
   </si>
   <si>
     <t>$$AMGE = \sum_{j=1}^{E} \sum_{n=1}^{N'} \lambda_{n} \gamma_{in} \delta_{jn}$$</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Equivalent to $FA$, when only the first IPC axis is considered for computation. 
-$$FP = \lambda_{1}^{2}\gamma_{i1}^{2}$$
-As  $\lambda_{1}^{2}$ will be same for all the genotypes, the absolute value of $gamma_{i1}$ alone is sufficient for comparison. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> So this is also equivalent to the comparison based on biplot with first IPC axis.</t>
-    </r>
   </si>
   <si>
     <t>Sums of the absolute value of the IPC scores ($SIPC$)</t>
@@ -228,12 +208,45 @@
   <si>
     <t>Absolute value of the relative contribution of IPCs to the interaction  $Za$</t>
   </si>
+  <si>
+    <t>AMMI Based Stability Parameter ($ASTAB$)</t>
+  </si>
+  <si>
+    <t>ASTAB.AMMI</t>
+  </si>
+  <si>
+    <t>$$ASTAB = \sum_{n=1}^{N'}\lambda_{n}\gamma_{in}^{2}$$</t>
+  </si>
+  <si>
+    <t>[@rao_use_2005]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Equivalent to $FA$, when only the first IPC axis is considered for computation. 
+$$FP = \lambda_{1}^{2}\gamma_{i1}^{2}$$
+As  $\lambda_{1}^{2}$ will be same for all the genotypes, the absolute value of $\gamma_{i1}$ alone is sufficient for comparison. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> So this is also equivalent to the comparison based on biplot with first IPC axis.</t>
+    </r>
+  </si>
+  <si>
+    <t>$$Y_{ij} = \mu + \alpha_{i} + \beta_{j} + \sum_{n=1}^{N}\lambda_{n}\gamma_{in}\delta_{jn} + \rho_{ij}$$
+Where, $Y_{ij}$ is the yield of $i$^th^ genotype in $j$^th^ environment, $\mu$ is the grand mean, $\alpha_{i}$ is the genotype deviation from the grand mean, $\beta_{j}$ is the environment deviation, $N$ is the number of significant IPCs (number of IPC that were retained in the AMMI model via F tests), $\lambda_{n}$ is the is the singular value for interaction principal component (IPC) $n$ and correspondingly $\lambda_{n}^{2}$  is its eigen value, $\gamma_{in}$ is the eigenvector value for $i$^th^ genotype, $\delta_{jn}$  is the eigenvector value for $j$^th^ environment and $\rho_{ij}$ is the residual.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -305,17 +318,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -324,13 +326,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -349,12 +349,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,9 +444,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,6 +479,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,23 +655,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.7109375" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -688,206 +684,226 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="45">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45">
-      <c r="A4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60">
-      <c r="A5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60">
-      <c r="A7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="75">
-      <c r="A8" s="8" t="s">
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="75">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60">
-      <c r="A11" s="11" t="s">
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="105">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="90">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="90">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>37</v>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -897,23 +913,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/stability.xlsx
+++ b/vignettes/stability.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -104,11 +103,6 @@
   </si>
   <si>
     <t>$B$</t>
-  </si>
-  <si>
-    <t>Equivalent to $FA$, when the first two IPC axes are considered for computation.
-$$B = \sum_{n=1}^{2}\lambda_{n}^{2}\gamma_{in}^{2}$$
-Stability comparisons based on this measure will be equivalent to the comparisons based on biplot with first two IPC axes.</t>
   </si>
   <si>
     <t>$$AMGE = \sum_{j=1}^{E} \sum_{n=1}^{N'} \lambda_{n} \gamma_{in} \delta_{jn}$$</t>
@@ -240,6 +234,11 @@
   <si>
     <t>$$Y_{ij} = \mu + \alpha_{i} + \beta_{j} + \sum_{n=1}^{N}\lambda_{n}\gamma_{in}\delta_{jn} + \rho_{ij}$$
 Where, $Y_{ij}$ is the yield of $i$^th^ genotype in $j$^th^ environment, $\mu$ is the grand mean, $\alpha_{i}$ is the genotype deviation from the grand mean, $\beta_{j}$ is the environment deviation, $N$ is the number of significant IPCs (number of IPC that were retained in the AMMI model via F tests), $\lambda_{n}$ is the is the singular value for interaction principal component (IPC) $n$ and correspondingly $\lambda_{n}^{2}$  is its eigen value, $\gamma_{in}$ is the eigenvector value for $i$^th^ genotype, $\delta_{jn}$  is the eigenvector value for $j$^th^ environment and $\rho_{ij}$ is the residual.</t>
+  </si>
+  <si>
+    <t>Equivalent to $FA$, when only the first two IPC axes are considered for computation.
+$$B = \sum_{n=1}^{2}\lambda_{n}^{2}\gamma_{in}^{2}$$
+Stability comparisons based on this measure will be equivalent to the comparisons based on biplot with first two IPC axes.</t>
   </si>
 </sst>
 </file>
@@ -658,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,19 +691,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -712,13 +711,13 @@
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -726,13 +725,13 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -740,13 +739,13 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -754,13 +753,13 @@
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -768,13 +767,13 @@
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
@@ -791,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -810,10 +809,10 @@
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>21</v>
@@ -827,7 +826,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>24</v>
@@ -841,10 +840,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>26</v>
@@ -855,10 +854,10 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>26</v>
@@ -866,13 +865,13 @@
     </row>
     <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>27</v>
@@ -880,30 +879,30 @@
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/stability.xlsx
+++ b/vignettes/stability.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>function</t>
   </si>
@@ -240,12 +240,21 @@
 $$B = \sum_{n=1}^{2}\lambda_{n}^{2}\gamma_{in}^{2}$$
 Stability comparisons based on this measure will be equivalent to the comparisons based on biplot with first two IPC axes.</t>
   </si>
+  <si>
+    <t>Modified AMMI Stability Index ($MASI$)</t>
+  </si>
+  <si>
+    <t>MASI.AMMI</t>
+  </si>
+  <si>
+    <t>$$MASI = \sqrt{ \sum_{n=1}^{N'} PC_{n}^{2} \times \theta_{n}^{2}}$$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,10 +452,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,7 +486,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -669,7 +676,7 @@
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -683,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="150">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -695,7 +702,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -709,7 +716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -723,7 +730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="60">
       <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
@@ -737,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -751,7 +758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
@@ -765,7 +772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="75">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
@@ -779,7 +786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="75">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -793,7 +800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -807,7 +814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="60">
       <c r="A11" s="9" t="s">
         <v>53</v>
       </c>
@@ -821,7 +828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -835,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="105">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -849,7 +856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="90">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -863,7 +870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="90">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -877,7 +884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="45">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -891,17 +898,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="30">
+      <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -912,21 +931,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>

--- a/vignettes/stability.xlsx
+++ b/vignettes/stability.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -29,9 +29,6 @@
     <t>AMMI stability parameter</t>
   </si>
   <si>
-    <t>xxxx</t>
-  </si>
-  <si>
     <t>[@sneller_repeatability_1997]</t>
   </si>
   <si>
@@ -56,12 +53,6 @@
     <t>Sneller</t>
   </si>
   <si>
-    <t>AMMI stability value (ASV)</t>
-  </si>
-  <si>
-    <t>Modified AMMI stability value (ASV)</t>
-  </si>
-  <si>
     <t>[@zali_evaluation_2012]</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
   </si>
   <si>
     <t>[@zhang_analysis_1998]</t>
-  </si>
-  <si>
-    <t>agricolae::index.AMMI</t>
   </si>
   <si>
     <t>MASV.AMMI</t>
@@ -185,9 +173,6 @@
     <t>AVAMGE.AMMI</t>
   </si>
   <si>
-    <t>ASI.AMMI</t>
-  </si>
-  <si>
     <t>ZA.AMMI</t>
   </si>
   <si>
@@ -249,12 +234,27 @@
   <si>
     <t>$$MASI = \sqrt{ \sum_{n=1}^{N'} PC_{n}^{2} \times \theta_{n}^{2}}$$</t>
   </si>
+  <si>
+    <t>0xxxx</t>
+  </si>
+  <si>
+    <t>Modified AMMI stability value ($MASV$)</t>
+  </si>
+  <si>
+    <t>AMMI stability value ($ASV$) *</t>
+  </si>
+  <si>
+    <t>ASI.AMMI` and `MASI.AMMI</t>
+  </si>
+  <si>
+    <t>agricolae::index.AMMI` and `MASV.AMMI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,9 +452,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,6 +487,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,14 +663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -676,7 +678,7 @@
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -690,238 +692,238 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150">
+    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="45">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60">
-      <c r="A5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60">
-      <c r="A7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="75">
-      <c r="A8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="75">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60">
-      <c r="A11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="105">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="90">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="90">
-      <c r="A15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45">
-      <c r="A16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -931,23 +933,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/stability.xlsx
+++ b/vignettes/stability.xlsx
@@ -244,10 +244,10 @@
     <t>AMMI stability value ($ASV$) *</t>
   </si>
   <si>
+    <t>agricolae::index.AMMI` and `MASV.AMMI</t>
+  </si>
+  <si>
     <t>ASI.AMMI` and `MASI.AMMI</t>
-  </si>
-  <si>
-    <t>agricolae::index.AMMI` and `MASV.AMMI</t>
   </si>
 </sst>
 </file>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>29</v>
@@ -751,7 +751,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>18</v>

--- a/vignettes/stability.xlsx
+++ b/vignettes/stability.xlsx
@@ -185,9 +185,6 @@
     <t>FA.AMMI</t>
   </si>
   <si>
-    <t>Absolute value of the relative contribution of IPCs to the interaction  $Za$</t>
-  </si>
-  <si>
     <t>AMMI Based Stability Parameter ($ASTAB$)</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>ASI.AMMI` and `MASI.AMMI</t>
+  </si>
+  <si>
+    <t>Absolute value of the relative contribution of IPCs to the interaction  ($Za$)</t>
   </si>
 </sst>
 </file>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -723,7 +723,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>29</v>
@@ -734,24 +734,24 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>18</v>
@@ -838,7 +838,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>22</v>
@@ -852,7 +852,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>22</v>
@@ -874,19 +874,19 @@
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>44</v>

--- a/vignettes/stability.xlsx
+++ b/vignettes/stability.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CF52F2-F213-4A73-9E39-7897216E8354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>function</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>AMGE.AMMI</t>
-  </si>
-  <si>
-    <t>https://dl.sciencesocieties.org/publications/cs/abstracts/37/2/CS0370020383?access=0&amp;view=pdf</t>
-  </si>
-  <si>
-    <t>Sneller</t>
   </si>
   <si>
     <t>[@zali_evaluation_2012]</t>
@@ -249,12 +243,18 @@
   <si>
     <t>Absolute value of the relative contribution of IPCs to the interaction  ($Za$)</t>
   </si>
+  <si>
+    <t>[@ajay_rectification_2019; @zali_evaluation_2012]</t>
+  </si>
+  <si>
+    <t>[@ajay_modified_2018]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,13 +267,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -327,14 +320,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -346,7 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -360,8 +348,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,6 +440,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -488,6 +492,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,11 +684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +700,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -697,265 +718,239 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>36</v>
+      <c r="A3" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>60</v>
+      <c r="A6" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
+      <c r="A7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>31</v>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="8" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>35</v>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>63</v>
+      <c r="A18" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>